--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>816863.1883236206</v>
+        <v>841464.649108481</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.84004947482878</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.76827226216025</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -902,67 +902,67 @@
         <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F5" t="n">
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>74.54795914169615</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>114.123354854168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>205.5178444382804</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>81.91466968018197</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>119.3034809802377</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="U11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>155.1371722699136</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1625,10 +1625,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>120.0500723064956</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
         <v>205.5178444382804</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
@@ -1886,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>118.0298825695387</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>126.9889729633927</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>10.07252727449773</v>
       </c>
       <c r="S24" t="n">
-        <v>169.5521944243417</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,76 +2552,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>143.4027167768713</v>
       </c>
     </row>
     <row r="28">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,19 +2834,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>4.3203725898889</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,11 +3041,11 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>104.954515658907</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,17 +3272,17 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,19 +3351,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>144.6060349495346</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>53.8785034707274</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3509,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>3.26531605719669</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>29.1427070647979</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>8.311618392921636</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>41.39970040110641</v>
+        <v>42.1462917273642</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4337,13 +4337,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4355,25 +4355,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W2" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X2" t="n">
-        <v>199.2900309704538</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>36.481881570041</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>36.481881570041</v>
       </c>
       <c r="D3" t="n">
-        <v>305.9856669025954</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>146.7482118971399</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>146.7482118971399</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>146.7482118971399</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>33.37907630471925</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4413,10 +4413,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4434,25 +4434,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="4">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
         <v>16.44142755506243</v>
@@ -4604,13 +4604,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.9759855281775</v>
+        <v>645.6008794760112</v>
       </c>
       <c r="C6" t="n">
-        <v>162.9759855281775</v>
+        <v>471.1478501948842</v>
       </c>
       <c r="D6" t="n">
-        <v>162.9759855281775</v>
+        <v>322.2134405336329</v>
       </c>
       <c r="E6" t="n">
         <v>162.9759855281775</v>
@@ -4653,43 +4653,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>446.4674385625565</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>331.1913225482455</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4814,7 +4814,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4835,19 +4835,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="V8" t="n">
+      <c r="Y8" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="W8" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="X8" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C9" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>99.93765079389055</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
         <v>17.19556020784815</v>
@@ -4884,10 +4884,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
         <v>366.5706756325438</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
         <v>16.44142755506243</v>
@@ -5042,19 +5042,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5066,25 +5066,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="U11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W11" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="U11" t="n">
+      <c r="X11" t="n">
         <v>224.0352098159517</v>
       </c>
-      <c r="V11" t="n">
+      <c r="Y11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="W11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M12" t="n">
         <v>163.1080096386462</v>
-      </c>
-      <c r="M12" t="n">
-        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
         <v>366.5706756325438</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5273,7 @@
         <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,13 +5285,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C15" t="n">
         <v>16.44142755506243</v>
@@ -5361,16 +5361,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>345.2979091154422</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X15" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="G17" t="n">
         <v>487.4018176583718</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5631,13 +5631,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5701,10 +5701,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>627.9339654430905</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C21" t="n">
-        <v>453.4809361619635</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D21" t="n">
-        <v>304.5465265007123</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>139.2573793685931</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>835.7854656486234</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>835.7854656486234</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>835.7854656486234</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>835.7854656486234</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>835.7854656486234</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X21" t="n">
-        <v>627.9339654430905</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y21" t="n">
-        <v>627.9339654430905</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6014,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U23" t="n">
-        <v>812.6742080953335</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V23" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W23" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X23" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>569.2254314512334</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>281.5846883638847</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C24" t="n">
-        <v>281.5846883638847</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>953.8828855363961</v>
       </c>
       <c r="S24" t="n">
-        <v>691.6227832106515</v>
+        <v>953.8828855363961</v>
       </c>
       <c r="T24" t="n">
-        <v>489.4361885694175</v>
+        <v>953.8828855363961</v>
       </c>
       <c r="U24" t="n">
-        <v>489.4361885694175</v>
+        <v>953.8828855363961</v>
       </c>
       <c r="V24" t="n">
-        <v>489.4361885694175</v>
+        <v>953.8828855363961</v>
       </c>
       <c r="W24" t="n">
-        <v>489.4361885694175</v>
+        <v>953.8828855363961</v>
       </c>
       <c r="X24" t="n">
-        <v>281.5846883638847</v>
+        <v>953.8828855363961</v>
       </c>
       <c r="Y24" t="n">
-        <v>281.5846883638847</v>
+        <v>746.1225867714422</v>
       </c>
     </row>
     <row r="25">
@@ -6166,10 +6166,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>738.7078125165641</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.04605772994853</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>959.6931427935767</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>959.6931427935767</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>959.6931427935767</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>959.6931427935767</v>
       </c>
       <c r="V30" t="n">
-        <v>846.5570557448675</v>
+        <v>959.6931427935767</v>
       </c>
       <c r="W30" t="n">
-        <v>603.1082791007675</v>
+        <v>716.2443661494767</v>
       </c>
       <c r="X30" t="n">
-        <v>395.2567788952347</v>
+        <v>716.2443661494767</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.4964801302808</v>
+        <v>508.4840673845228</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6734,16 +6734,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>125.2958053919369</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6786,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y33" t="n">
-        <v>69.84447166430675</v>
+        <v>284.5332603973924</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
         <v>829.5248650203655</v>
@@ -6889,19 +6889,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>655.0361258579891</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C36" t="n">
-        <v>655.0361258579891</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="D36" t="n">
-        <v>655.0361258579891</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>220.992564514626</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>74.45800654151097</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>655.0361258579891</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y36" t="n">
-        <v>655.0361258579891</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="37">
@@ -7114,28 +7114,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D38" t="n">
-        <v>509.4769954460863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E38" t="n">
-        <v>266.0282188019862</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F38" t="n">
-        <v>22.57944215788615</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G38" t="n">
-        <v>22.57944215788615</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.47235360622864</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C39" t="n">
-        <v>49.47235360622864</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D39" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.47235360622864</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="40">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7415,16 +7415,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,22 +7439,22 @@
         <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>604.3859801240053</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>396.792197863116</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,16 +7491,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>626.8294255367553</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
         <v>822.0713777531216</v>
@@ -7521,19 +7521,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>813.6758036188573</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>606.0820213579681</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>398.4882390970787</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>398.4882390970787</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.8944568361894</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7600,7 +7600,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.6485894889752</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>570.0333416264414</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
         <v>570.0333416264414</v>
@@ -7755,22 +7755,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>606.8361540107537</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="U45" t="n">
-        <v>399.2423717498644</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="V45" t="n">
-        <v>399.2423717498644</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="W45" t="n">
-        <v>399.2423717498644</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="X45" t="n">
-        <v>191.6485894889752</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y45" t="n">
-        <v>191.6485894889752</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="46">
@@ -7985,16 +7985,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,13 +8061,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8301,7 +8301,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8462,10 +8462,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,19 +9009,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>258.4602915813506</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>261.0929869123474</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9483,10 +9483,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,13 +9963,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,16 +10434,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,10 +11072,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11151,7 +11151,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>339.8103375922893</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11306,13 +11306,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22553,13 +22553,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22595,25 +22595,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.2178212748161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,13 +22626,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>127.60501608981</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22641,10 +22641,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>72.62836058925484</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22674,16 +22674,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22790,10 +22790,10 @@
         <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>91.98522450817119</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>91.5593409231364</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>159.7550473327271</v>
@@ -23075,19 +23075,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23112,10 +23112,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>30.32077455631449</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>106.6379011007371</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,7 +23163,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,7 +23197,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23306,22 +23306,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>42.07573218289394</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W11" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.39601137995373</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23343,22 +23343,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>105.8913097744792</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23400,7 +23400,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23513,10 +23513,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>158.2215652569456</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,10 +23634,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>85.7229128969819</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>0.1648513390239543</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,10 +23741,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
@@ -23774,13 +23774,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23871,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23941,13 +23941,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24048,19 +24048,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>27.03932982384518</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,22 +24096,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>44.6941981404451</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,7 +24215,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24224,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24263,10 +24263,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,22 +24282,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>90.0853068781454</v>
       </c>
       <c r="S24" t="n">
-        <v>2.130976679496143</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,10 +24348,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24406,13 +24406,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>152.5300167065108</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,7 +24494,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>101.9362516896722</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>62.27997900043303</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24722,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24759,7 +24759,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,7 +24768,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>95.83746156275423</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24816,13 +24816,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,10 +24929,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24974,7 +24974,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,10 +25002,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>40.11469673447691</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25050,10 +25050,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,22 +25205,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,19 +25239,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>13.03904550586634</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>83.46501369248324</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25397,16 +25397,16 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>336.2094860585705</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>112.0378000911003</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25488,10 +25488,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>60.25392578661718</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,7 +25521,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25679,10 +25679,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>52.06643139743881</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25722,7 +25722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>64.93916505516172</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25761,10 +25761,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>217.6297636880532</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
@@ -25840,10 +25840,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,7 +25919,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>350.5293905929939</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,7 +25995,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>158.7650282937152</v>
+        <v>158.0184369674574</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
@@ -26007,10 +26007,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>418210.7933637075</v>
+        <v>418210.7933637077</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>440504.4170432466</v>
+        <v>440504.4170432464</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440504.4170432465</v>
+        <v>440504.4170432466</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440504.4170432466</v>
+        <v>440504.4170432465</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440504.4170432465</v>
+        <v>440504.4170432466</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440504.4170432465</v>
+        <v>440504.4170432464</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418210.7933637077</v>
+        <v>418210.7933637075</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>157757.6418349316</v>
+      </c>
+      <c r="C2" t="n">
+        <v>157757.6418349316</v>
+      </c>
+      <c r="D2" t="n">
         <v>157757.6418349317</v>
-      </c>
-      <c r="C2" t="n">
-        <v>157757.6418349317</v>
-      </c>
-      <c r="D2" t="n">
-        <v>157757.6418349316</v>
       </c>
       <c r="E2" t="n">
         <v>157757.6418349316</v>
@@ -26326,7 +26326,7 @@
         <v>157757.6418349316</v>
       </c>
       <c r="G2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="H2" t="n">
         <v>166160.6725313324</v>
@@ -26350,10 +26350,10 @@
         <v>166160.6725313324</v>
       </c>
       <c r="O2" t="n">
-        <v>157757.6418349315</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="P2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="D4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="E4" t="n">
-        <v>26843.34631524591</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="F4" t="n">
-        <v>26843.34631524591</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="P4" t="n">
-        <v>26843.34631524592</v>
+        <v>23970.50033531152</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15917.45399614845</v>
+        <v>18790.29997608281</v>
       </c>
       <c r="C6" t="n">
-        <v>84791.2105778383</v>
+        <v>87664.05655777265</v>
       </c>
       <c r="D6" t="n">
-        <v>84791.21057783827</v>
+        <v>87664.05655777271</v>
       </c>
       <c r="E6" t="n">
-        <v>118418.8105778383</v>
+        <v>121291.6565577726</v>
       </c>
       <c r="F6" t="n">
-        <v>118418.8105778383</v>
+        <v>121291.6565577726</v>
       </c>
       <c r="G6" t="n">
-        <v>113467.7194623937</v>
+        <v>116495.6925807843</v>
       </c>
       <c r="H6" t="n">
-        <v>123196.7624365608</v>
+        <v>126224.7355549514</v>
       </c>
       <c r="I6" t="n">
-        <v>123196.7624365607</v>
+        <v>126224.7355549514</v>
       </c>
       <c r="J6" t="n">
-        <v>69424.25154635138</v>
+        <v>72452.22466474201</v>
       </c>
       <c r="K6" t="n">
-        <v>123196.7624365608</v>
+        <v>126224.7355549514</v>
       </c>
       <c r="L6" t="n">
-        <v>123196.7624365608</v>
+        <v>126224.7355549514</v>
       </c>
       <c r="M6" t="n">
-        <v>123196.7624365608</v>
+        <v>126224.7355549515</v>
       </c>
       <c r="N6" t="n">
-        <v>123196.7624365608</v>
+        <v>126224.7355549514</v>
       </c>
       <c r="O6" t="n">
-        <v>118418.8105778382</v>
+        <v>121291.6565577726</v>
       </c>
       <c r="P6" t="n">
-        <v>118418.8105778383</v>
+        <v>121291.6565577727</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -35021,7 +35021,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,10 +35182,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35653,16 +35653,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>127.1185794980172</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,13 +36683,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,10 +37792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37871,7 +37871,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>197.2140931478448</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38026,13 +38026,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>21.52426467247106</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841464.649108481</v>
+        <v>842248.7950465102</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4964126.598584918</v>
+        <v>4964126.598584916</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G2" t="n">
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="D3" t="n">
-        <v>19.84004947482878</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -789,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.54795914169615</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>153.6816173514499</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>29.70371983933438</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>119.3034809802377</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1370,73 +1372,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9.211010870930394</v>
+      </c>
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1458,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>40.55742940505439</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>137.697900565744</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1746,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>103.0088977318019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1983,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="19">
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,58 +2098,58 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="21">
@@ -2163,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>118.0298825695387</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>20.8888551418663</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,58 +2335,58 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>92.95466700954542</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.07252727449773</v>
+        <v>86.33905572536996</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,14 +2554,14 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2570,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>17.74674123063843</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>143.4027167768713</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="H29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>79.73605578874087</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.3203725898889</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,67 +2952,67 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>116.325098768111</v>
       </c>
       <c r="F33" t="n">
-        <v>104.954515658907</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3199,55 +3201,55 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3275,64 +3277,64 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,22 +3353,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>53.8785034707274</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>118.7386675653386</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3585,25 +3587,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>35.40726547353844</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>151.4741327147726</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3749,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>171.0294181666926</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3822,19 +3824,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>8.172609644471894</v>
       </c>
       <c r="H42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>181.0201173812374</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>42.1462917273642</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4337,13 +4339,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4355,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V2" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W2" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>639.2227743377304</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.481881570041</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C3" t="n">
-        <v>36.481881570041</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4410,16 +4412,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4437,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V3" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X3" t="n">
-        <v>204.697218590109</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y3" t="n">
-        <v>204.697218590109</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4580,7 +4582,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4604,10 +4606,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
         <v>431.628992076841</v>
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645.6008794760112</v>
+        <v>171.6753844757189</v>
       </c>
       <c r="C6" t="n">
-        <v>471.1478501948842</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>322.2134405336329</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4653,13 +4655,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4671,25 +4673,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>339.8907214957869</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4781,7 +4783,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4817,7 +4819,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4884,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>366.5706756325438</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4908,25 +4910,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>224.7893424687375</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V9" t="n">
-        <v>224.7893424687375</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W9" t="n">
-        <v>17.19556020784815</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X9" t="n">
-        <v>17.19556020784815</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W11" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>204.697218590109</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>204.697218590109</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>204.697218590109</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>58.162660616994</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>58.162660616994</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>58.162660616994</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,46 +5126,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>224.0352098159517</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>224.0352098159517</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>224.0352098159517</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="13">
@@ -5285,13 +5287,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>647.6183484719946</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>498.6839388107434</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>549.2141532458947</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5394,13 +5396,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5595,46 +5597,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y18" t="n">
         <v>19.28114311021272</v>
@@ -5701,16 +5703,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>298.4948343740486</v>
+        <v>466.183833194304</v>
       </c>
       <c r="C21" t="n">
-        <v>298.4948343740486</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D21" t="n">
-        <v>298.4948343740486</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E21" t="n">
-        <v>139.2573793685931</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>466.183833194304</v>
       </c>
       <c r="V21" t="n">
-        <v>298.4948343740486</v>
+        <v>466.183833194304</v>
       </c>
       <c r="W21" t="n">
-        <v>298.4948343740486</v>
+        <v>466.183833194304</v>
       </c>
       <c r="X21" t="n">
-        <v>298.4948343740486</v>
+        <v>466.183833194304</v>
       </c>
       <c r="Y21" t="n">
-        <v>298.4948343740486</v>
+        <v>466.183833194304</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>475.3318284112885</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>718.7806050553886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>577.9072497513741</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C24" t="n">
-        <v>577.9072497513741</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D24" t="n">
-        <v>577.9072497513741</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>953.8828855363961</v>
+        <v>876.8459881112726</v>
       </c>
       <c r="S24" t="n">
-        <v>953.8828855363961</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="T24" t="n">
-        <v>953.8828855363961</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="U24" t="n">
-        <v>953.8828855363961</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="V24" t="n">
-        <v>953.8828855363961</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="W24" t="n">
-        <v>953.8828855363961</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="X24" t="n">
-        <v>953.8828855363961</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="Y24" t="n">
-        <v>746.1225867714422</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="25">
@@ -6166,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>322.4725277437814</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>175.9379697706663</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>37.20714435328185</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6318,37 +6320,37 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>339.3395341116723</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>194.4883050441255</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>340.2687303644548</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6549,43 +6551,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>959.6931427935767</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>959.6931427935767</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>959.6931427935767</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>959.6931427935767</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>959.6931427935767</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>716.2443661494767</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>716.2443661494767</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>508.4840673845228</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="C32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.5332603973924</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C33" t="n">
-        <v>284.5332603973924</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D33" t="n">
-        <v>284.5332603973924</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="E33" t="n">
-        <v>125.2958053919369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6810,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>492.3847606029253</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>284.5332603973924</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y33" t="n">
-        <v>284.5332603973924</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6897,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X35" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U35" t="n">
+      <c r="Y35" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="V35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.2300195200815</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C36" t="n">
-        <v>380.2300195200815</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D36" t="n">
-        <v>380.2300195200815</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E36" t="n">
-        <v>220.992564514626</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F36" t="n">
-        <v>74.45800654151097</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>569.5322334683942</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>569.5322334683942</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>569.5322334683942</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>569.5322334683942</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="37">
@@ -7114,28 +7116,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.04605772994853</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C39" t="n">
-        <v>55.04605772994853</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>55.04605772994853</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>55.04605772994853</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>55.04605772994853</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="40">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7415,7 +7417,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7439,22 +7441,22 @@
         <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>479.4030114519265</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>330.4686017906753</v>
       </c>
       <c r="E42" t="n">
-        <v>64.21544693014803</v>
+        <v>171.2311467852198</v>
       </c>
       <c r="F42" t="n">
-        <v>64.21544693014803</v>
+        <v>24.69658881210475</v>
       </c>
       <c r="G42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7500,13 +7502,13 @@
         <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7527,13 +7529,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="43">
@@ -7597,7 +7599,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,19 +7651,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7682,16 +7684,16 @@
         <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7728,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>606.0820213579681</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>398.4882390970787</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>398.4882390970787</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>398.4882390970787</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>398.4882390970787</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.8944568361894</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7985,16 +7987,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8228,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,7 +8303,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,7 +8312,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8465,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>290.282096632709</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
@@ -9015,13 +9017,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>258.4602915813506</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,10 +9485,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10902,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11063,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11148,16 +11150,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O42" t="n">
-        <v>213.1865395540696</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,10 +11311,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,13 +22555,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22595,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>27.99995220500799</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22610,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22626,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>158.2215652569457</v>
       </c>
       <c r="D3" t="n">
-        <v>127.60501608981</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22677,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>91.98522450817119</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>19.02688163686585</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22911,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972317</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23115,10 +23117,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>82.53172439716208</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>106.6379011007371</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>199.809058715315</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23346,7 +23348,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23355,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>48.83920344636068</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>105.8913097744792</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23403,7 +23405,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.2215652569456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>19.94717988965689</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23634,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>312.2938397833332</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23871,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="19">
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="21">
@@ -24051,16 +24053,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>27.03932982384518</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>205.0525269391085</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,10 +24223,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>116.0654025766999</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24263,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24288,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>90.0853068781454</v>
+        <v>13.81877842727317</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>236.4659043839653</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,28 +24524,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>94.48870300585803</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>62.27997900043303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>32.49938844775559</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>95.83746156275423</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,10 +25004,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>41.31998168728992</v>
       </c>
       <c r="F33" t="n">
-        <v>40.11469673447691</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25050,7 +25052,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25163,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,22 +25241,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>83.46501369248324</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>81.42606112948302</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25354,7 +25356,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25473,25 +25475,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>112.0378000911003</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>6.17094774062835</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,13 +25523,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25637,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>52.06643139743881</v>
+        <v>64.01572075205127</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25710,19 +25712,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>129.1709075187387</v>
       </c>
       <c r="H42" t="n">
-        <v>64.93916505516172</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25837,10 +25839,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25922,16 +25924,16 @@
         <v>70.32553552659914</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>97.74851050512638</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>158.0184369674574</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>418210.7933637077</v>
+        <v>418210.7933637075</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>418210.7933637077</v>
+        <v>418210.7933637075</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440504.4170432465</v>
+        <v>440504.4170432466</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>440504.4170432464</v>
+        <v>440504.4170432465</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440504.4170432465</v>
+        <v>440504.4170432466</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440504.4170432466</v>
+        <v>440504.4170432465</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440504.4170432465</v>
+        <v>440504.4170432466</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440504.4170432465</v>
+        <v>440504.4170432466</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440504.4170432466</v>
+        <v>440504.4170432465</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440504.4170432464</v>
+        <v>440504.4170432465</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418210.7933637075</v>
+        <v>418210.7933637077</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418210.7933637077</v>
+        <v>418210.7933637075</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>157757.6418349316</v>
       </c>
       <c r="D2" t="n">
+        <v>157757.6418349316</v>
+      </c>
+      <c r="E2" t="n">
         <v>157757.6418349317</v>
       </c>
-      <c r="E2" t="n">
-        <v>157757.6418349316</v>
-      </c>
       <c r="F2" t="n">
-        <v>157757.6418349316</v>
+        <v>157757.6418349317</v>
       </c>
       <c r="G2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313325</v>
       </c>
       <c r="H2" t="n">
         <v>166160.6725313324</v>
       </c>
       <c r="I2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="J2" t="n">
         <v>166160.6725313324</v>
@@ -26418,13 +26420,13 @@
         <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="D4" t="n">
         <v>23970.50033531153</v>
       </c>
       <c r="E4" t="n">
-        <v>23970.50033531153</v>
+        <v>23970.50033531152</v>
       </c>
       <c r="F4" t="n">
         <v>23970.50033531152</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18790.29997608281</v>
+        <v>18790.29997608278</v>
       </c>
       <c r="C6" t="n">
+        <v>87664.05655777262</v>
+      </c>
+      <c r="D6" t="n">
         <v>87664.05655777265</v>
       </c>
-      <c r="D6" t="n">
-        <v>87664.05655777271</v>
-      </c>
       <c r="E6" t="n">
-        <v>121291.6565577726</v>
+        <v>121291.6565577727</v>
       </c>
       <c r="F6" t="n">
-        <v>121291.6565577726</v>
+        <v>121291.6565577727</v>
       </c>
       <c r="G6" t="n">
-        <v>116495.6925807843</v>
+        <v>116495.6925807844</v>
       </c>
       <c r="H6" t="n">
-        <v>126224.7355549514</v>
+        <v>126224.7355549515</v>
       </c>
       <c r="I6" t="n">
         <v>126224.7355549514</v>
       </c>
       <c r="J6" t="n">
-        <v>72452.22466474201</v>
+        <v>72452.22466474204</v>
       </c>
       <c r="K6" t="n">
         <v>126224.7355549514</v>
       </c>
       <c r="L6" t="n">
+        <v>126224.7355549515</v>
+      </c>
+      <c r="M6" t="n">
         <v>126224.7355549514</v>
-      </c>
-      <c r="M6" t="n">
-        <v>126224.7355549515</v>
       </c>
       <c r="N6" t="n">
         <v>126224.7355549514</v>
       </c>
       <c r="O6" t="n">
+        <v>121291.6565577727</v>
+      </c>
+      <c r="P6" t="n">
         <v>121291.6565577726</v>
-      </c>
-      <c r="P6" t="n">
-        <v>121291.6565577727</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34707,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34948,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,7 +35023,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35185,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
@@ -35735,13 +35737,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>127.1185794980173</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37552,10 +37554,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37783,10 +37785,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37868,16 +37870,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O42" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38029,10 +38031,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842248.7950465102</v>
+        <v>738016.2967830665</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4964126.598584916</v>
+        <v>4964126.598584918</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>153.6816173514499</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1138,70 +1138,70 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>29.70371983933438</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>33.57505181659868</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>205.5178444382804</v>
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>13.66473413638039</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>40.55742940505439</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1624,58 +1624,58 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,10 +1691,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>137.697900565744</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>192.6071572548568</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="18">
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.541029659300109</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,16 +2165,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>61.77856551940157</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>20.8888551418663</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>54.82907102477792</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.33905572536996</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -2602,16 +2602,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2642,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>30.95184914057959</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>17.74674123063843</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2715,67 +2715,67 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>218.2545356023573</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>79.73605578874087</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>69.99226724763534</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2930,7 +2930,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3031,73 +3031,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>202.2946864288972</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3359,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>118.7386675653386</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>69.99226724763528</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.809496073036188</v>
-      </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,25 +3587,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>151.4741327147726</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3663,67 +3663,67 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,64 +3742,64 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>159.0801288120801</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>8.172609644471894</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>161.5443926614383</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3988,64 +3988,64 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="V44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.311618392921636</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4339,43 +4339,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X2" t="n">
-        <v>406.8838132313431</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
         <v>16.44142755506243</v>
@@ -4415,19 +4415,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4445,16 +4445,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W3" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X3" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4570,16 +4570,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171.6753844757189</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
         <v>16.44142755506243</v>
@@ -4649,49 +4649,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y6" t="n">
-        <v>339.8907214957869</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4816,40 +4816,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>137.4989467641607</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C9" t="n">
-        <v>137.4989467641607</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>513.308066045118</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>513.308066045118</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>513.308066045118</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X9" t="n">
-        <v>513.308066045118</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y9" t="n">
-        <v>305.7142837842288</v>
+        <v>165.3758372163137</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5053,7 +5053,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O11" t="n">
         <v>822.0713777531216</v>
@@ -5068,25 +5068,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>651.2927635848137</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>236.1051990630351</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.51141680214578</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>204.697218590109</v>
       </c>
       <c r="C12" t="n">
-        <v>204.697218590109</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="D12" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>204.697218590109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>58.162660616994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>58.162660616994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>58.162660616994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5153,16 +5153,16 @@
         <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V12" t="n">
-        <v>619.8847831118876</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W12" t="n">
-        <v>619.8847831118876</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X12" t="n">
-        <v>412.2910008509983</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y12" t="n">
         <v>204.697218590109</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5235,16 +5235,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5290,10 +5290,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5308,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>419.9249113964174</v>
       </c>
       <c r="C15" t="n">
-        <v>647.6183484719946</v>
+        <v>245.4718821152904</v>
       </c>
       <c r="D15" t="n">
-        <v>498.6839388107434</v>
+        <v>245.4718821152904</v>
       </c>
       <c r="E15" t="n">
-        <v>359.5951503604969</v>
+        <v>245.4718821152904</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>245.4718821152904</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5366,13 +5366,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5393,16 +5393,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>419.9249113964174</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>419.9249113964174</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>419.9249113964174</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5466,22 +5466,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>139.2573793685931</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>139.2573793685931</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5606,10 +5606,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5633,13 +5633,13 @@
         <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>55.04605772994853</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X18" t="n">
-        <v>55.04605772994853</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="19">
@@ -5700,19 +5700,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5788,16 +5788,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X20" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="W20" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="X20" t="n">
-        <v>233.7108255783361</v>
-      </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>466.183833194304</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>466.183833194304</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>901.6545640768973</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>699.4679694356633</v>
       </c>
       <c r="U21" t="n">
-        <v>466.183833194304</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="V21" t="n">
-        <v>466.183833194304</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W21" t="n">
-        <v>466.183833194304</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X21" t="n">
-        <v>466.183833194304</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
-        <v>466.183833194304</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5934,13 +5934,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>327.4530077769195</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>876.8459881112726</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>703.4286435619415</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>703.4286435619415</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>703.4286435619415</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>703.4286435619415</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>703.4286435619415</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X24" t="n">
-        <v>703.4286435619415</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y24" t="n">
-        <v>495.6683447969875</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="25">
@@ -6180,10 +6180,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E26" t="n">
-        <v>348.0024326625565</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F26" t="n">
-        <v>348.0024326625565</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>348.0024326625565</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
         <v>31.35113235729608</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V26" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W26" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X26" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y26" t="n">
-        <v>591.4512093066566</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>481.7099827492369</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="C27" t="n">
-        <v>481.7099827492369</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="D27" t="n">
-        <v>481.7099827492369</v>
+        <v>51.29976984439196</v>
       </c>
       <c r="E27" t="n">
-        <v>322.4725277437814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>175.9379697706663</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>37.20714435328185</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y27" t="n">
-        <v>481.7099827492369</v>
+        <v>51.29976984439196</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>99.82261360389037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>99.82261360389037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>99.82261360389037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,43 +6551,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>893.3578956645399</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>893.3578956645399</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>691.171301023306</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>462.9476827596951</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6979,10 +6979,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>569.5322334683942</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>569.5322334683942</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>569.5322334683942</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>569.5322334683942</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X36" t="n">
-        <v>361.6807332628614</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7116,22 +7116,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7219,7 +7219,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>571.6739692052849</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,13 +7262,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C41" t="n">
-        <v>651.2927635848137</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D41" t="n">
-        <v>651.2927635848137</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E41" t="n">
-        <v>651.2927635848137</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F41" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G41" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H41" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7432,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>653.8560407330535</v>
+        <v>350.131911841645</v>
       </c>
       <c r="C42" t="n">
-        <v>479.4030114519265</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D42" t="n">
-        <v>330.4686017906753</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
-        <v>171.2311467852198</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>24.69658881210475</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7493,49 +7493,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N42" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>557.7256941025342</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>350.131911841645</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>350.131911841645</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>350.131911841645</v>
       </c>
       <c r="X42" t="n">
-        <v>822.0713777531216</v>
+        <v>350.131911841645</v>
       </c>
       <c r="Y42" t="n">
-        <v>822.0713777531216</v>
+        <v>350.131911841645</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H43" t="n">
         <v>16.44142755506243</v>
@@ -7599,22 +7599,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7660,10 +7660,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7681,19 +7681,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W44" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X44" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.07469395038575</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7730,49 +7730,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>813.6758036188573</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>813.6758036188573</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>813.6758036188573</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="46">
@@ -7987,16 +7987,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8072,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>164.1205091169155</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
@@ -8306,16 +8306,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8464,13 +8464,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,10 +8701,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8938,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9014,16 +9014,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.628815381816</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9254,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,13 +11308,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11390,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22685,16 +22685,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,19 +22786,19 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>244.2733193484424</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>19.02688163686585</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23117,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>82.53172439716208</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23159,16 +23159,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>172.1076439607057</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>199.809058715315</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>201.9355493385885</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>180.7200942177732</v>
@@ -23339,16 +23339,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>133.7803314282584</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>48.83920344636068</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23512,13 +23512,13 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23579,10 +23579,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>19.94717988965689</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,13 +23591,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23633,10 +23633,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>59.08782590606285</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23749,13 +23749,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="18">
@@ -23819,16 +23819,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>130.8024875039105</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>170.2754303037659</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24028,16 +24028,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,16 +24053,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>109.9046055844363</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>205.0525269391085</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>117.8794279635378</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>13.81877842727317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24420,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>236.4659043839653</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>43.08181652002401</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24530,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>126.6932313148214</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>94.48870300585803</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24691,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>109.4977228677776</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>32.49938844775559</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>30.16556690500779</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24919,28 +24919,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>162.9782053421103</v>
+        <v>164.9367954821779</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25004,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>41.31998168728992</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25049,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25247,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>81.42606112948302</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>135.7807179558422</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25356,7 +25356,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25371,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4932414420988</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25475,25 +25475,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>6.17094774062835</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,28 +25630,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I41" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,13 +25681,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>64.01572075205127</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>129.1709075187387</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>38.6203360333833</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25876,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>122.2344140318545</v>
+        <v>158.68143044351</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25961,7 +25961,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>97.74851050512638</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>91.8462157597215</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26003,7 +26003,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>418210.7933637075</v>
+        <v>418210.7933637077</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>418210.7933637075</v>
+        <v>418210.7933637077</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>418210.7933637077</v>
+        <v>418210.7933637075</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418210.7933637077</v>
+        <v>418210.7933637075</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>440504.4170432466</v>
+        <v>440504.4170432465</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440504.4170432466</v>
+        <v>440504.4170432465</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440504.4170432465</v>
+        <v>440504.4170432466</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440504.4170432466</v>
+        <v>440504.4170432465</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440504.4170432465</v>
+        <v>440504.4170432466</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418210.7933637075</v>
+        <v>418210.7933637077</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157757.6418349316</v>
+        <v>157757.6418349315</v>
       </c>
       <c r="C2" t="n">
         <v>157757.6418349316</v>
@@ -26322,13 +26322,13 @@
         <v>157757.6418349316</v>
       </c>
       <c r="E2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="G2" t="n">
-        <v>166160.6725313325</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="H2" t="n">
         <v>166160.6725313324</v>
@@ -26420,10 +26420,10 @@
         <v>23970.50033531152</v>
       </c>
       <c r="C4" t="n">
+        <v>23970.50033531153</v>
+      </c>
+      <c r="D4" t="n">
         <v>23970.50033531152</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23970.50033531153</v>
       </c>
       <c r="E4" t="n">
         <v>23970.50033531152</v>
@@ -26456,7 +26456,7 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>23970.50033531152</v>
+        <v>23970.50033531153</v>
       </c>
       <c r="P4" t="n">
         <v>23970.50033531152</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18790.29997608278</v>
+        <v>6152.137821222219</v>
       </c>
       <c r="C6" t="n">
-        <v>87664.05655777262</v>
+        <v>75025.89440291209</v>
       </c>
       <c r="D6" t="n">
-        <v>87664.05655777265</v>
+        <v>75025.89440291212</v>
       </c>
       <c r="E6" t="n">
-        <v>121291.6565577727</v>
+        <v>108653.4944029121</v>
       </c>
       <c r="F6" t="n">
-        <v>121291.6565577727</v>
+        <v>108653.4944029122</v>
       </c>
       <c r="G6" t="n">
-        <v>116495.6925807844</v>
+        <v>104277.6819607439</v>
       </c>
       <c r="H6" t="n">
-        <v>126224.7355549515</v>
+        <v>114006.7249349109</v>
       </c>
       <c r="I6" t="n">
-        <v>126224.7355549514</v>
+        <v>114006.724934911</v>
       </c>
       <c r="J6" t="n">
-        <v>72452.22466474204</v>
+        <v>60234.21404470158</v>
       </c>
       <c r="K6" t="n">
-        <v>126224.7355549514</v>
+        <v>114006.7249349109</v>
       </c>
       <c r="L6" t="n">
-        <v>126224.7355549515</v>
+        <v>114006.724934911</v>
       </c>
       <c r="M6" t="n">
-        <v>126224.7355549514</v>
+        <v>114006.724934911</v>
       </c>
       <c r="N6" t="n">
-        <v>126224.7355549514</v>
+        <v>114006.724934911</v>
       </c>
       <c r="O6" t="n">
-        <v>121291.6565577727</v>
+        <v>108653.4944029121</v>
       </c>
       <c r="P6" t="n">
-        <v>121291.6565577726</v>
+        <v>108653.4944029121</v>
       </c>
     </row>
   </sheetData>
@@ -34707,16 +34707,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34792,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>21.52426467247106</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
@@ -35026,16 +35026,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0.4947814597977008</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N15" t="n">
-        <v>21.52426467247106</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35974,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36448,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38110,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
